--- a/src/input/modelo_importacao_lote.xlsx
+++ b/src/input/modelo_importacao_lote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="333">
   <si>
     <t>Id</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>Rua tal</t>
+  </si>
+  <si>
+    <t>232 | PROJETO DE MELHORIA DE NÍVEL DE TENSÃO</t>
   </si>
   <si>
     <t>Ramon Carvalho</t>
@@ -1532,7 +1535,9 @@
         <v>1234</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
         <v>328</v>
@@ -1562,10 +1567,12 @@
         <v>123</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1573,7 +1580,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
       <c r="K3" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="9">
@@ -1588,19 +1595,29 @@
       <c r="T3" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9">
+        <v>1234</v>
+      </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>558399838877</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1610,19 +1627,29 @@
       <c r="T4" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>123</v>
+      </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>558393418572</v>
+      </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -1632,19 +1659,29 @@
       <c r="T5" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>1234</v>
+      </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9">
+        <v>558399838877</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -1654,19 +1691,29 @@
       <c r="T6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9">
+        <v>123</v>
+      </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>558393418572</v>
+      </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -1676,19 +1723,29 @@
       <c r="T7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>1234</v>
+      </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9">
+        <v>558399838877</v>
+      </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -1698,19 +1755,29 @@
       <c r="T8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9">
+        <v>123</v>
+      </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9">
+        <v>558393418572</v>
+      </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
